--- a/updated_filtered_data_with_lengths_carapace-all.xlsx
+++ b/updated_filtered_data_with_lengths_carapace-all.xlsx
@@ -764,7 +764,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a82562f</t>
+          <t>67cd4bdcb76385b031c31d48</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825633</t>
+          <t>67cd4bdcb76385b031c31d4c</t>
         </is>
       </c>
       <c r="X3" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825631</t>
+          <t>67cd4bdcb76385b031c31d4a</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825635</t>
+          <t>67cd4bdcb76385b031c31d4e</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825953</t>
+          <t>67cd4be2b76385b031c3206c</t>
         </is>
       </c>
       <c r="X6" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825955</t>
+          <t>67cd4be2b76385b031c3206e</t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825957</t>
+          <t>67cd4be2b76385b031c32070</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825acf</t>
+          <t>67cd4be4b76385b031c321e8</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825acd</t>
+          <t>67cd4be4b76385b031c321e6</t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257f6</t>
+          <t>67cd4be0b76385b031c31f0f</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257f4</t>
+          <t>67cd4be0b76385b031c31f0d</t>
         </is>
       </c>
       <c r="X12" t="n">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257fa</t>
+          <t>67cd4be0b76385b031c31f13</t>
         </is>
       </c>
       <c r="X13" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257f8</t>
+          <t>67cd4be0b76385b031c31f11</t>
         </is>
       </c>
       <c r="X14" t="n">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825710</t>
+          <t>67cd4bdeb76385b031c31e29</t>
         </is>
       </c>
       <c r="X15" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a82570e</t>
+          <t>67cd4bdeb76385b031c31e27</t>
         </is>
       </c>
       <c r="X16" t="n">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a8259b3</t>
+          <t>67cd4be2b76385b031c320cc</t>
         </is>
       </c>
       <c r="X17" t="n">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a8259b5</t>
+          <t>67cd4be2b76385b031c320ce</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a8256b5</t>
+          <t>67cd4bddb76385b031c31dce</t>
         </is>
       </c>
       <c r="X19" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a8256b3</t>
+          <t>67cd4bddb76385b031c31dcc</t>
         </is>
       </c>
       <c r="X20" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a8256b9</t>
+          <t>67cd4bddb76385b031c31dd2</t>
         </is>
       </c>
       <c r="X21" t="n">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>67ccb7d41e8e09088a8255eb</t>
+          <t>67cd4bdbb76385b031c31d04</t>
         </is>
       </c>
       <c r="X22" t="n">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>67ccb7d41e8e09088a8255ed</t>
+          <t>67cd4bdbb76385b031c31d06</t>
         </is>
       </c>
       <c r="X23" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>67ccb7d41e8e09088a8255ef</t>
+          <t>67cd4bdbb76385b031c31d08</t>
         </is>
       </c>
       <c r="X24" t="n">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a825825</t>
+          <t>67cd4be0b76385b031c31f3e</t>
         </is>
       </c>
       <c r="X25" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a825823</t>
+          <t>67cd4be0b76385b031c31f3c</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a825827</t>
+          <t>67cd4be0b76385b031c31f40</t>
         </is>
       </c>
       <c r="X27" t="n">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257bb</t>
+          <t>67cd4be0b76385b031c31ed4</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257c5</t>
+          <t>67cd4be0b76385b031c31ede</t>
         </is>
       </c>
       <c r="X36" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257c1</t>
+          <t>67cd4be0b76385b031c31eda</t>
         </is>
       </c>
       <c r="X37" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257b9</t>
+          <t>67cd4be0b76385b031c31ed2</t>
         </is>
       </c>
       <c r="X38" t="n">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a8257bf</t>
+          <t>67cd4be0b76385b031c31ed8</t>
         </is>
       </c>
       <c r="X39" t="n">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a82587b</t>
+          <t>67cd4be1b76385b031c31f94</t>
         </is>
       </c>
       <c r="X40" t="n">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a82587f</t>
+          <t>67cd4be1b76385b031c31f98</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a825889</t>
+          <t>67cd4be1b76385b031c31fa2</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a82587d</t>
+          <t>67cd4be1b76385b031c31f96</t>
         </is>
       </c>
       <c r="X43" t="n">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a82566f</t>
+          <t>67cd4bddb76385b031c31d88</t>
         </is>
       </c>
       <c r="X44" t="n">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825671</t>
+          <t>67cd4bddb76385b031c31d8a</t>
         </is>
       </c>
       <c r="X45" t="n">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825671</t>
+          <t>67cd4bddb76385b031c31d8a</t>
         </is>
       </c>
       <c r="X46" t="n">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a82584e</t>
+          <t>67cd4be0b76385b031c31f67</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a82584a</t>
+          <t>67cd4be0b76385b031c31f63</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a825846</t>
+          <t>67cd4be0b76385b031c31f5f</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>67ccb7d71e8e09088a825848</t>
+          <t>67cd4be0b76385b031c31f61</t>
         </is>
       </c>
       <c r="X50" t="n">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825978</t>
+          <t>67cd4be2b76385b031c32091</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825974</t>
+          <t>67cd4be2b76385b031c3208d</t>
         </is>
       </c>
       <c r="X52" t="n">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825982</t>
+          <t>67cd4be2b76385b031c3209b</t>
         </is>
       </c>
       <c r="X53" t="n">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825976</t>
+          <t>67cd4be2b76385b031c3208f</t>
         </is>
       </c>
       <c r="X54" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825972</t>
+          <t>67cd4be2b76385b031c3208b</t>
         </is>
       </c>
       <c r="X55" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258d5</t>
+          <t>67cd4be1b76385b031c31fee</t>
         </is>
       </c>
       <c r="X56" t="n">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258c9</t>
+          <t>67cd4be1b76385b031c31fe2</t>
         </is>
       </c>
       <c r="X57" t="n">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258cb</t>
+          <t>67cd4be1b76385b031c31fe4</t>
         </is>
       </c>
       <c r="X58" t="n">
@@ -9762,7 +9762,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258cf</t>
+          <t>67cd4be1b76385b031c31fe8</t>
         </is>
       </c>
       <c r="X59" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258cd</t>
+          <t>67cd4be1b76385b031c31fe6</t>
         </is>
       </c>
       <c r="X60" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258d3</t>
+          <t>67cd4be1b76385b031c31fec</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a82565c</t>
+          <t>67cd4bddb76385b031c31d75</t>
         </is>
       </c>
       <c r="X62" t="n">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a82565a</t>
+          <t>67cd4bddb76385b031c31d73</t>
         </is>
       </c>
       <c r="X63" t="n">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825ae2</t>
+          <t>67cd4be4b76385b031c321fb</t>
         </is>
       </c>
       <c r="X64" t="n">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825ae4</t>
+          <t>67cd4be4b76385b031c321fd</t>
         </is>
       </c>
       <c r="X65" t="n">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825ae6</t>
+          <t>67cd4be4b76385b031c321ff</t>
         </is>
       </c>
       <c r="X66" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a825921</t>
+          <t>67cd4be1b76385b031c3203a</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a82591d</t>
+          <t>67cd4be1b76385b031c32036</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a82591b</t>
+          <t>67cd4be1b76385b031c32034</t>
         </is>
       </c>
       <c r="X69" t="n">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a825921</t>
+          <t>67cd4be1b76385b031c3203a</t>
         </is>
       </c>
       <c r="X70" t="n">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825a1b</t>
+          <t>67cd4be3b76385b031c32134</t>
         </is>
       </c>
       <c r="X71" t="n">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825a1d</t>
+          <t>67cd4be3b76385b031c32136</t>
         </is>
       </c>
       <c r="X72" t="n">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825a15</t>
+          <t>67cd4be3b76385b031c3212e</t>
         </is>
       </c>
       <c r="X73" t="n">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825a13</t>
+          <t>67cd4be3b76385b031c3212c</t>
         </is>
       </c>
       <c r="X74" t="n">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825a17</t>
+          <t>67cd4be3b76385b031c32130</t>
         </is>
       </c>
       <c r="X75" t="n">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825725</t>
+          <t>67cd4bdfb76385b031c31e3e</t>
         </is>
       </c>
       <c r="X76" t="n">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825723</t>
+          <t>67cd4bdfb76385b031c31e3c</t>
         </is>
       </c>
       <c r="X77" t="n">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825729</t>
+          <t>67cd4bdfb76385b031c31e42</t>
         </is>
       </c>
       <c r="X78" t="n">
@@ -13082,7 +13082,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825727</t>
+          <t>67cd4bdfb76385b031c31e40</t>
         </is>
       </c>
       <c r="X79" t="n">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258b4</t>
+          <t>67cd4be1b76385b031c31fcd</t>
         </is>
       </c>
       <c r="X80" t="n">
@@ -13414,7 +13414,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a8258b2</t>
+          <t>67cd4be1b76385b031c31fcb</t>
         </is>
       </c>
       <c r="X81" t="n">
@@ -13580,7 +13580,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825767</t>
+          <t>67cd4bdfb76385b031c31e80</t>
         </is>
       </c>
       <c r="X82" t="n">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825765</t>
+          <t>67cd4bdfb76385b031c31e7e</t>
         </is>
       </c>
       <c r="X83" t="n">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a82576b</t>
+          <t>67cd4bdfb76385b031c31e84</t>
         </is>
       </c>
       <c r="X84" t="n">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a8256d6</t>
+          <t>67cd4bdeb76385b031c31def</t>
         </is>
       </c>
       <c r="X85" t="n">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a8256d8</t>
+          <t>67cd4bdeb76385b031c31df1</t>
         </is>
       </c>
       <c r="X86" t="n">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a8256dc</t>
+          <t>67cd4bdeb76385b031c31df5</t>
         </is>
       </c>
       <c r="X87" t="n">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a82574e</t>
+          <t>67cd4bdfb76385b031c31e67</t>
         </is>
       </c>
       <c r="X88" t="n">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a82574c</t>
+          <t>67cd4bdfb76385b031c31e65</t>
         </is>
       </c>
       <c r="X89" t="n">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a54</t>
+          <t>67cd4be3b76385b031c3216d</t>
         </is>
       </c>
       <c r="X90" t="n">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a58</t>
+          <t>67cd4be3b76385b031c32171</t>
         </is>
       </c>
       <c r="X91" t="n">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a50</t>
+          <t>67cd4be3b76385b031c32169</t>
         </is>
       </c>
       <c r="X92" t="n">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a50</t>
+          <t>67cd4be3b76385b031c32169</t>
         </is>
       </c>
       <c r="X93" t="n">
@@ -15568,7 +15568,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a4e</t>
+          <t>67cd4be3b76385b031c32167</t>
         </is>
       </c>
       <c r="X94" t="n">
@@ -15734,7 +15734,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a4e</t>
+          <t>67cd4be3b76385b031c32167</t>
         </is>
       </c>
       <c r="X95" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a82578c</t>
+          <t>67cd4bdfb76385b031c31ea5</t>
         </is>
       </c>
       <c r="X96" t="n">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a825788</t>
+          <t>67cd4bdfb76385b031c31ea1</t>
         </is>
       </c>
       <c r="X97" t="n">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a82578e</t>
+          <t>67cd4bdfb76385b031c31ea7</t>
         </is>
       </c>
       <c r="X98" t="n">
@@ -16398,7 +16398,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a82578a</t>
+          <t>67cd4bdfb76385b031c31ea3</t>
         </is>
       </c>
       <c r="X99" t="n">
@@ -16564,7 +16564,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b56</t>
+          <t>67cd4be5b76385b031c3226f</t>
         </is>
       </c>
       <c r="X100" t="n">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b5a</t>
+          <t>67cd4be5b76385b031c32273</t>
         </is>
       </c>
       <c r="X101" t="n">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b58</t>
+          <t>67cd4be5b76385b031c32271</t>
         </is>
       </c>
       <c r="X102" t="n">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b5c</t>
+          <t>67cd4be5b76385b031c32275</t>
         </is>
       </c>
       <c r="X103" t="n">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a8256f9</t>
+          <t>67cd4bdeb76385b031c31e12</t>
         </is>
       </c>
       <c r="X104" t="n">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>67ccb7d61e8e09088a8256fb</t>
+          <t>67cd4bdeb76385b031c31e14</t>
         </is>
       </c>
       <c r="X105" t="n">
@@ -17558,7 +17558,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>67ccb7dc1e8e09088a825b83</t>
+          <t>67cd4be5b76385b031c3229c</t>
         </is>
       </c>
       <c r="X106" t="n">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>67ccb7dc1e8e09088a825b81</t>
+          <t>67cd4be5b76385b031c3229a</t>
         </is>
       </c>
       <c r="X107" t="n">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>67ccb7dc1e8e09088a825b87</t>
+          <t>67cd4be5b76385b031c322a0</t>
         </is>
       </c>
       <c r="X108" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>67ccb7dc1e8e09088a825b85</t>
+          <t>67cd4be5b76385b031c3229e</t>
         </is>
       </c>
       <c r="X109" t="n">
@@ -18222,7 +18222,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a8259cc</t>
+          <t>67cd4be2b76385b031c320e5</t>
         </is>
       </c>
       <c r="X110" t="n">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a8259ce</t>
+          <t>67cd4be2b76385b031c320e7</t>
         </is>
       </c>
       <c r="X111" t="n">
@@ -18554,7 +18554,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a8259eb</t>
+          <t>67cd4be2b76385b031c32104</t>
         </is>
       </c>
       <c r="X112" t="n">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a8259e7</t>
+          <t>67cd4be2b76385b031c32100</t>
         </is>
       </c>
       <c r="X113" t="n">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a8259e5</t>
+          <t>67cd4be2b76385b031c320fe</t>
         </is>
       </c>
       <c r="X114" t="n">
@@ -19052,7 +19052,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b01</t>
+          <t>67cd4be4b76385b031c3221a</t>
         </is>
       </c>
       <c r="X115" t="n">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b01</t>
+          <t>67cd4be4b76385b031c3221a</t>
         </is>
       </c>
       <c r="X116" t="n">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>67ccb7d91e8e09088a825a08</t>
+          <t>67cd4be3b76385b031c32121</t>
         </is>
       </c>
       <c r="X117" t="n">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a82590a</t>
+          <t>67cd4be1b76385b031c32023</t>
         </is>
       </c>
       <c r="X118" t="n">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825696</t>
+          <t>67cd4bddb76385b031c31daf</t>
         </is>
       </c>
       <c r="X119" t="n">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825694</t>
+          <t>67cd4bddb76385b031c31dad</t>
         </is>
       </c>
       <c r="X120" t="n">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825692</t>
+          <t>67cd4bddb76385b031c31dab</t>
         </is>
       </c>
       <c r="X121" t="n">
@@ -20214,7 +20214,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825614</t>
+          <t>67cd4bdcb76385b031c31d2d</t>
         </is>
       </c>
       <c r="X122" t="n">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>67ccb7d51e8e09088a825610</t>
+          <t>67cd4bdcb76385b031c31d29</t>
         </is>
       </c>
       <c r="X123" t="n">
@@ -20546,7 +20546,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a9e</t>
+          <t>67cd4be4b76385b031c321b7</t>
         </is>
       </c>
       <c r="X124" t="n">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825aa0</t>
+          <t>67cd4be4b76385b031c321b9</t>
         </is>
       </c>
       <c r="X125" t="n">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825aa4</t>
+          <t>67cd4be4b76385b031c321bd</t>
         </is>
       </c>
       <c r="X126" t="n">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825aa2</t>
+          <t>67cd4be4b76385b031c321bb</t>
         </is>
       </c>
       <c r="X127" t="n">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a8b</t>
+          <t>67cd4be3b76385b031c321a4</t>
         </is>
       </c>
       <c r="X128" t="n">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>67ccb7da1e8e09088a825a89</t>
+          <t>67cd4be3b76385b031c321a2</t>
         </is>
       </c>
       <c r="X129" t="n">
@@ -21542,7 +21542,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>67ccb7d81e8e09088a825942</t>
+          <t>67cd4be2b76385b031c3205b</t>
         </is>
       </c>
       <c r="X130" t="n">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b27</t>
+          <t>67cd4be5b76385b031c32240</t>
         </is>
       </c>
       <c r="X131" t="n">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b2f</t>
+          <t>67cd4be5b76385b031c32248</t>
         </is>
       </c>
       <c r="X132" t="n">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b29</t>
+          <t>67cd4be5b76385b031c32242</t>
         </is>
       </c>
       <c r="X133" t="n">
@@ -22206,7 +22206,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b2b</t>
+          <t>67cd4be5b76385b031c32244</t>
         </is>
       </c>
       <c r="X134" t="n">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>67ccb7db1e8e09088a825b16</t>
+          <t>67cd4be5b76385b031c3222f</t>
         </is>
       </c>
       <c r="X135" t="n">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>67ccb7dc1e8e09088a825bb4</t>
+          <t>67cd4be6b76385b031c322cd</t>
         </is>
       </c>
       <c r="X136" t="n">
@@ -22704,7 +22704,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>67ccb7dc1e8e09088a825bb2</t>
+          <t>67cd4be6b76385b031c322cb</t>
         </is>
       </c>
       <c r="X137" t="n">
@@ -22870,7 +22870,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c1d</t>
+          <t>67cd4be7b76385b031c32336</t>
         </is>
       </c>
       <c r="X138" t="n">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c19</t>
+          <t>67cd4be7b76385b031c32332</t>
         </is>
       </c>
       <c r="X139" t="n">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c93</t>
+          <t>67cd4be7b76385b031c323ac</t>
         </is>
       </c>
       <c r="X141" t="n">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d31</t>
+          <t>67cd4be8b76385b031c3244a</t>
         </is>
       </c>
       <c r="X144" t="n">
@@ -24034,7 +24034,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d4f</t>
+          <t>67cd4be8b76385b031c32468</t>
         </is>
       </c>
       <c r="X147" t="n">
@@ -24200,7 +24200,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d51</t>
+          <t>67cd4be8b76385b031c3246a</t>
         </is>
       </c>
       <c r="X148" t="n">
@@ -24466,7 +24466,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c32</t>
+          <t>67cd4be7b76385b031c3234b</t>
         </is>
       </c>
       <c r="X150" t="n">
@@ -24632,7 +24632,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825cc8</t>
+          <t>67cd4be8b76385b031c323e1</t>
         </is>
       </c>
       <c r="X151" t="n">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825ceb</t>
+          <t>67cd4be8b76385b031c32404</t>
         </is>
       </c>
       <c r="X156" t="n">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c54</t>
+          <t>67cd4be7b76385b031c3236d</t>
         </is>
       </c>
       <c r="X157" t="n">
@@ -25530,7 +25530,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825cd3</t>
+          <t>67cd4be8b76385b031c323ec</t>
         </is>
       </c>
       <c r="X158" t="n">
@@ -26296,7 +26296,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c61</t>
+          <t>67cd4be7b76385b031c3237a</t>
         </is>
       </c>
       <c r="X165" t="n">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c77</t>
+          <t>67cd4be7b76385b031c32390</t>
         </is>
       </c>
       <c r="X167" t="n">
@@ -26728,7 +26728,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d01</t>
+          <t>67cd4be8b76385b031c3241a</t>
         </is>
       </c>
       <c r="X168" t="n">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825be9</t>
+          <t>67cd4be6b76385b031c32302</t>
         </is>
       </c>
       <c r="X169" t="n">
@@ -27260,7 +27260,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c82</t>
+          <t>67cd4be7b76385b031c3239b</t>
         </is>
       </c>
       <c r="X172" t="n">
@@ -27426,7 +27426,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825cf6</t>
+          <t>67cd4be8b76385b031c3240f</t>
         </is>
       </c>
       <c r="X173" t="n">
@@ -27592,7 +27592,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c6c</t>
+          <t>67cd4be7b76385b031c32385</t>
         </is>
       </c>
       <c r="X174" t="n">
@@ -27758,7 +27758,7 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d19</t>
+          <t>67cd4be8b76385b031c32432</t>
         </is>
       </c>
       <c r="X175" t="n">
@@ -27924,7 +27924,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c41</t>
+          <t>67cd4be7b76385b031c3235a</t>
         </is>
       </c>
       <c r="X176" t="n">
@@ -28090,7 +28090,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825c41</t>
+          <t>67cd4be7b76385b031c3235a</t>
         </is>
       </c>
       <c r="X177" t="n">
@@ -28256,7 +28256,7 @@
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825bcf</t>
+          <t>67cd4be6b76385b031c322e8</t>
         </is>
       </c>
       <c r="X178" t="n">
@@ -28422,7 +28422,7 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d26</t>
+          <t>67cd4be8b76385b031c3243f</t>
         </is>
       </c>
       <c r="X179" t="n">
@@ -28588,7 +28588,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d66</t>
+          <t>67cd4be8b76385b031c3247f</t>
         </is>
       </c>
       <c r="X180" t="n">
@@ -28754,7 +28754,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d64</t>
+          <t>67cd4be8b76385b031c3247d</t>
         </is>
       </c>
       <c r="X181" t="n">
@@ -28920,7 +28920,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825ce0</t>
+          <t>67cd4be8b76385b031c323f9</t>
         </is>
       </c>
       <c r="X182" t="n">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>67ccb7df1e8e09088a825d7b</t>
+          <t>67cd4be8b76385b031c32494</t>
         </is>
       </c>
       <c r="X183" t="n">
@@ -29250,7 +29250,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d0c</t>
+          <t>67cd4be8b76385b031c32425</t>
         </is>
       </c>
       <c r="X184" t="n">
@@ -29416,7 +29416,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825bdc</t>
+          <t>67cd4be6b76385b031c322f5</t>
         </is>
       </c>
       <c r="X185" t="n">
@@ -29582,7 +29582,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825cb9</t>
+          <t>67cd4be8b76385b031c323d2</t>
         </is>
       </c>
       <c r="X186" t="n">
@@ -29748,7 +29748,7 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825bfc</t>
+          <t>67cd4be6b76385b031c32315</t>
         </is>
       </c>
       <c r="X187" t="n">
@@ -29914,7 +29914,7 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825bf8</t>
+          <t>67cd4be6b76385b031c32311</t>
         </is>
       </c>
       <c r="X188" t="n">
@@ -30080,7 +30080,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>67ccb7dd1e8e09088a825bf6</t>
+          <t>67cd4be6b76385b031c3230f</t>
         </is>
       </c>
       <c r="X189" t="n">
@@ -30246,7 +30246,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d3c</t>
+          <t>67cd4be8b76385b031c32455</t>
         </is>
       </c>
       <c r="X190" t="n">
@@ -30412,7 +30412,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825d3c</t>
+          <t>67cd4be8b76385b031c32455</t>
         </is>
       </c>
       <c r="X191" t="n">
@@ -30578,7 +30578,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825ca4</t>
+          <t>67cd4be7b76385b031c323bd</t>
         </is>
       </c>
       <c r="X192" t="n">
@@ -30744,7 +30744,7 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>67ccb7de1e8e09088a825ca6</t>
+          <t>67cd4be7b76385b031c323bf</t>
         </is>
       </c>
       <c r="X193" t="n">

--- a/updated_filtered_data_with_lengths_carapace-all.xlsx
+++ b/updated_filtered_data_with_lengths_carapace-all.xlsx
@@ -812,7 +812,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583b6</t>
+          <t>67e00c5fdbe88df81cfbcc07</t>
         </is>
       </c>
       <c r="AD2" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583ba</t>
+          <t>67e00c5fdbe88df81cfbcc0b</t>
         </is>
       </c>
       <c r="AD3" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583b8</t>
+          <t>67e00c5fdbe88df81cfbcc09</t>
         </is>
       </c>
       <c r="AD4" t="n">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583bc</t>
+          <t>67e00c5fdbe88df81cfbcc0d</t>
         </is>
       </c>
       <c r="AD5" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586da</t>
+          <t>67e00c60dbe88df81cfbcf2b</t>
         </is>
       </c>
       <c r="AD6" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586dc</t>
+          <t>67e00c60dbe88df81cfbcf2d</t>
         </is>
       </c>
       <c r="AD7" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586de</t>
+          <t>67e00c60dbe88df81cfbcf2f</t>
         </is>
       </c>
       <c r="AD8" t="n">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58856</t>
+          <t>67e00c60dbe88df81cfbd0a7</t>
         </is>
       </c>
       <c r="AD9" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58854</t>
+          <t>67e00c60dbe88df81cfbd0a5</t>
         </is>
       </c>
       <c r="AD10" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5857d</t>
+          <t>67e00c5fdbe88df81cfbcdce</t>
         </is>
       </c>
       <c r="AD11" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5857b</t>
+          <t>67e00c5fdbe88df81cfbcdcc</t>
         </is>
       </c>
       <c r="AD12" t="n">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58581</t>
+          <t>67e00c5fdbe88df81cfbcdd2</t>
         </is>
       </c>
       <c r="AD13" t="n">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5857f</t>
+          <t>67e00c5fdbe88df81cfbcdd0</t>
         </is>
       </c>
       <c r="AD14" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58497</t>
+          <t>67e00c5fdbe88df81cfbcce8</t>
         </is>
       </c>
       <c r="AD15" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58495</t>
+          <t>67e00c5fdbe88df81cfbcce6</t>
         </is>
       </c>
       <c r="AD16" t="n">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5873a</t>
+          <t>67e00c60dbe88df81cfbcf8b</t>
         </is>
       </c>
       <c r="AD17" t="n">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5873c</t>
+          <t>67e00c60dbe88df81cfbcf8d</t>
         </is>
       </c>
       <c r="AD18" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5843c</t>
+          <t>67e00c5fdbe88df81cfbcc8d</t>
         </is>
       </c>
       <c r="AD19" t="n">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5843a</t>
+          <t>67e00c5fdbe88df81cfbcc8b</t>
         </is>
       </c>
       <c r="AD20" t="n">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58440</t>
+          <t>67e00c5fdbe88df81cfbcc91</t>
         </is>
       </c>
       <c r="AD21" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a58372</t>
+          <t>67e00c5edbe88df81cfbcbc3</t>
         </is>
       </c>
       <c r="AD22" t="n">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a58374</t>
+          <t>67e00c5edbe88df81cfbcbc5</t>
         </is>
       </c>
       <c r="AD23" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a58376</t>
+          <t>67e00c5edbe88df81cfbcbc7</t>
         </is>
       </c>
       <c r="AD24" t="n">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a585ac</t>
+          <t>67e00c60dbe88df81cfbcdfd</t>
         </is>
       </c>
       <c r="AD25" t="n">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a585aa</t>
+          <t>67e00c60dbe88df81cfbcdfb</t>
         </is>
       </c>
       <c r="AD26" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a585ae</t>
+          <t>67e00c60dbe88df81cfbcdff</t>
         </is>
       </c>
       <c r="AD27" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58542</t>
+          <t>67e00c5fdbe88df81cfbcd93</t>
         </is>
       </c>
       <c r="AD35" t="n">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5854c</t>
+          <t>67e00c5fdbe88df81cfbcd9d</t>
         </is>
       </c>
       <c r="AD36" t="n">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58548</t>
+          <t>67e00c5fdbe88df81cfbcd99</t>
         </is>
       </c>
       <c r="AD37" t="n">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58540</t>
+          <t>67e00c5fdbe88df81cfbcd91</t>
         </is>
       </c>
       <c r="AD38" t="n">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58546</t>
+          <t>67e00c5fdbe88df81cfbcd97</t>
         </is>
       </c>
       <c r="AD39" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58602</t>
+          <t>67e00c60dbe88df81cfbce53</t>
         </is>
       </c>
       <c r="AD40" t="n">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58606</t>
+          <t>67e00c60dbe88df81cfbce57</t>
         </is>
       </c>
       <c r="AD41" t="n">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58610</t>
+          <t>67e00c60dbe88df81cfbce61</t>
         </is>
       </c>
       <c r="AD42" t="n">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58604</t>
+          <t>67e00c60dbe88df81cfbce55</t>
         </is>
       </c>
       <c r="AD43" t="n">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583f6</t>
+          <t>67e00c5fdbe88df81cfbcc47</t>
         </is>
       </c>
       <c r="AD44" t="n">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583f8</t>
+          <t>67e00c5fdbe88df81cfbcc49</t>
         </is>
       </c>
       <c r="AD45" t="n">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583f8</t>
+          <t>67e00c5fdbe88df81cfbcc49</t>
         </is>
       </c>
       <c r="AD46" t="n">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a585d5</t>
+          <t>67e00c60dbe88df81cfbce26</t>
         </is>
       </c>
       <c r="AD47" t="n">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a585d1</t>
+          <t>67e00c60dbe88df81cfbce22</t>
         </is>
       </c>
       <c r="AD48" t="n">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a585cd</t>
+          <t>67e00c60dbe88df81cfbce1e</t>
         </is>
       </c>
       <c r="AD49" t="n">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a585cf</t>
+          <t>67e00c60dbe88df81cfbce20</t>
         </is>
       </c>
       <c r="AD50" t="n">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586ff</t>
+          <t>67e00c60dbe88df81cfbcf50</t>
         </is>
       </c>
       <c r="AD51" t="n">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586fb</t>
+          <t>67e00c60dbe88df81cfbcf4c</t>
         </is>
       </c>
       <c r="AD52" t="n">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58709</t>
+          <t>67e00c60dbe88df81cfbcf5a</t>
         </is>
       </c>
       <c r="AD53" t="n">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586fd</t>
+          <t>67e00c60dbe88df81cfbcf4e</t>
         </is>
       </c>
       <c r="AD54" t="n">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586f9</t>
+          <t>67e00c60dbe88df81cfbcf4a</t>
         </is>
       </c>
       <c r="AD55" t="n">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5865c</t>
+          <t>67e00c60dbe88df81cfbcead</t>
         </is>
       </c>
       <c r="AD56" t="n">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58650</t>
+          <t>67e00c60dbe88df81cfbcea1</t>
         </is>
       </c>
       <c r="AD57" t="n">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58652</t>
+          <t>67e00c60dbe88df81cfbcea3</t>
         </is>
       </c>
       <c r="AD58" t="n">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58656</t>
+          <t>67e00c60dbe88df81cfbcea7</t>
         </is>
       </c>
       <c r="AD59" t="n">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58654</t>
+          <t>67e00c60dbe88df81cfbcea5</t>
         </is>
       </c>
       <c r="AD60" t="n">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5865a</t>
+          <t>67e00c60dbe88df81cfbceab</t>
         </is>
       </c>
       <c r="AD61" t="n">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583e3</t>
+          <t>67e00c5fdbe88df81cfbcc34</t>
         </is>
       </c>
       <c r="AD62" t="n">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a583e1</t>
+          <t>67e00c5fdbe88df81cfbcc32</t>
         </is>
       </c>
       <c r="AD63" t="n">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58869</t>
+          <t>67e00c60dbe88df81cfbd0ba</t>
         </is>
       </c>
       <c r="AD64" t="n">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5886b</t>
+          <t>67e00c60dbe88df81cfbd0bc</t>
         </is>
       </c>
       <c r="AD65" t="n">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5886d</t>
+          <t>67e00c60dbe88df81cfbd0be</t>
         </is>
       </c>
       <c r="AD66" t="n">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586a8</t>
+          <t>67e00c60dbe88df81cfbcef9</t>
         </is>
       </c>
       <c r="AD67" t="n">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586a4</t>
+          <t>67e00c60dbe88df81cfbcef5</t>
         </is>
       </c>
       <c r="AD68" t="n">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586a2</t>
+          <t>67e00c60dbe88df81cfbcef3</t>
         </is>
       </c>
       <c r="AD69" t="n">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586a8</t>
+          <t>67e00c60dbe88df81cfbcef9</t>
         </is>
       </c>
       <c r="AD70" t="n">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a587a2</t>
+          <t>67e00c60dbe88df81cfbcff3</t>
         </is>
       </c>
       <c r="AD71" t="n">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a587a4</t>
+          <t>67e00c60dbe88df81cfbcff5</t>
         </is>
       </c>
       <c r="AD72" t="n">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5879c</t>
+          <t>67e00c60dbe88df81cfbcfed</t>
         </is>
       </c>
       <c r="AD73" t="n">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5879a</t>
+          <t>67e00c60dbe88df81cfbcfeb</t>
         </is>
       </c>
       <c r="AD74" t="n">
@@ -13696,7 +13696,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5879e</t>
+          <t>67e00c60dbe88df81cfbcfef</t>
         </is>
       </c>
       <c r="AD75" t="n">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584ac</t>
+          <t>67e00c5fdbe88df81cfbccfd</t>
         </is>
       </c>
       <c r="AD76" t="n">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584aa</t>
+          <t>67e00c5fdbe88df81cfbccfb</t>
         </is>
       </c>
       <c r="AD77" t="n">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584b0</t>
+          <t>67e00c5fdbe88df81cfbcd01</t>
         </is>
       </c>
       <c r="AD78" t="n">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584ae</t>
+          <t>67e00c5fdbe88df81cfbccff</t>
         </is>
       </c>
       <c r="AD79" t="n">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5863b</t>
+          <t>67e00c60dbe88df81cfbce8c</t>
         </is>
       </c>
       <c r="AD80" t="n">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58639</t>
+          <t>67e00c60dbe88df81cfbce8a</t>
         </is>
       </c>
       <c r="AD81" t="n">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584ee</t>
+          <t>67e00c5fdbe88df81cfbcd3f</t>
         </is>
       </c>
       <c r="AD82" t="n">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584ec</t>
+          <t>67e00c5fdbe88df81cfbcd3d</t>
         </is>
       </c>
       <c r="AD83" t="n">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584f2</t>
+          <t>67e00c5fdbe88df81cfbcd43</t>
         </is>
       </c>
       <c r="AD84" t="n">
@@ -15534,7 +15534,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5845d</t>
+          <t>67e00c5fdbe88df81cfbccae</t>
         </is>
       </c>
       <c r="AD85" t="n">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5845f</t>
+          <t>67e00c5fdbe88df81cfbccb0</t>
         </is>
       </c>
       <c r="AD86" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58463</t>
+          <t>67e00c5fdbe88df81cfbccb4</t>
         </is>
       </c>
       <c r="AD87" t="n">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584d5</t>
+          <t>67e00c5fdbe88df81cfbcd26</t>
         </is>
       </c>
       <c r="AD88" t="n">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a584d3</t>
+          <t>67e00c5fdbe88df81cfbcd24</t>
         </is>
       </c>
       <c r="AD89" t="n">
@@ -16454,7 +16454,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a587db</t>
+          <t>67e00c60dbe88df81cfbd02c</t>
         </is>
       </c>
       <c r="AD90" t="n">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a587df</t>
+          <t>67e00c60dbe88df81cfbd030</t>
         </is>
       </c>
       <c r="AD91" t="n">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a587d7</t>
+          <t>67e00c60dbe88df81cfbd028</t>
         </is>
       </c>
       <c r="AD92" t="n">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a587d7</t>
+          <t>67e00c60dbe88df81cfbd028</t>
         </is>
       </c>
       <c r="AD93" t="n">
@@ -17188,7 +17188,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a587d5</t>
+          <t>67e00c60dbe88df81cfbd026</t>
         </is>
       </c>
       <c r="AD94" t="n">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a587d5</t>
+          <t>67e00c60dbe88df81cfbd026</t>
         </is>
       </c>
       <c r="AD95" t="n">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58513</t>
+          <t>67e00c5fdbe88df81cfbcd64</t>
         </is>
       </c>
       <c r="AD96" t="n">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5850f</t>
+          <t>67e00c5fdbe88df81cfbcd60</t>
         </is>
       </c>
       <c r="AD97" t="n">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58515</t>
+          <t>67e00c5fdbe88df81cfbcd66</t>
         </is>
       </c>
       <c r="AD98" t="n">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58511</t>
+          <t>67e00c5fdbe88df81cfbcd62</t>
         </is>
       </c>
       <c r="AD99" t="n">
@@ -18292,7 +18292,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588dd</t>
+          <t>67e00c61dbe88df81cfbd12e</t>
         </is>
       </c>
       <c r="AD100" t="n">
@@ -18476,7 +18476,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588e1</t>
+          <t>67e00c61dbe88df81cfbd132</t>
         </is>
       </c>
       <c r="AD101" t="n">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588df</t>
+          <t>67e00c61dbe88df81cfbd130</t>
         </is>
       </c>
       <c r="AD102" t="n">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588e3</t>
+          <t>67e00c61dbe88df81cfbd134</t>
         </is>
       </c>
       <c r="AD103" t="n">
@@ -19026,7 +19026,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58480</t>
+          <t>67e00c5fdbe88df81cfbccd1</t>
         </is>
       </c>
       <c r="AD104" t="n">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58482</t>
+          <t>67e00c5fdbe88df81cfbccd3</t>
         </is>
       </c>
       <c r="AD105" t="n">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5890a</t>
+          <t>67e00c61dbe88df81cfbd15b</t>
         </is>
       </c>
       <c r="AD106" t="n">
@@ -19578,7 +19578,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58908</t>
+          <t>67e00c61dbe88df81cfbd159</t>
         </is>
       </c>
       <c r="AD107" t="n">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5890e</t>
+          <t>67e00c61dbe88df81cfbd15f</t>
         </is>
       </c>
       <c r="AD108" t="n">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5890c</t>
+          <t>67e00c61dbe88df81cfbd15d</t>
         </is>
       </c>
       <c r="AD109" t="n">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58753</t>
+          <t>67e00c60dbe88df81cfbcfa4</t>
         </is>
       </c>
       <c r="AD110" t="n">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58755</t>
+          <t>67e00c60dbe88df81cfbcfa6</t>
         </is>
       </c>
       <c r="AD111" t="n">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58772</t>
+          <t>67e00c60dbe88df81cfbcfc3</t>
         </is>
       </c>
       <c r="AD112" t="n">
@@ -20682,7 +20682,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5876e</t>
+          <t>67e00c60dbe88df81cfbcfbf</t>
         </is>
       </c>
       <c r="AD113" t="n">
@@ -20866,7 +20866,7 @@
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5876c</t>
+          <t>67e00c60dbe88df81cfbcfbd</t>
         </is>
       </c>
       <c r="AD114" t="n">
@@ -21050,7 +21050,7 @@
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58888</t>
+          <t>67e00c60dbe88df81cfbd0d9</t>
         </is>
       </c>
       <c r="AD115" t="n">
@@ -21234,7 +21234,7 @@
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58888</t>
+          <t>67e00c60dbe88df81cfbd0d9</t>
         </is>
       </c>
       <c r="AD116" t="n">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="AC117" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a5878f</t>
+          <t>67e00c60dbe88df81cfbcfe0</t>
         </is>
       </c>
       <c r="AD117" t="n">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a58691</t>
+          <t>67e00c60dbe88df81cfbcee2</t>
         </is>
       </c>
       <c r="AD118" t="n">
@@ -21786,7 +21786,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a5841d</t>
+          <t>67e00c5fdbe88df81cfbcc6e</t>
         </is>
       </c>
       <c r="AD119" t="n">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a5841b</t>
+          <t>67e00c5fdbe88df81cfbcc6c</t>
         </is>
       </c>
       <c r="AD120" t="n">
@@ -22154,7 +22154,7 @@
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a58419</t>
+          <t>67e00c5fdbe88df81cfbcc6a</t>
         </is>
       </c>
       <c r="AD121" t="n">
@@ -22338,7 +22338,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a5839b</t>
+          <t>67e00c5fdbe88df81cfbcbec</t>
         </is>
       </c>
       <c r="AD122" t="n">
@@ -22522,7 +22522,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>67d49b90c523f6e114a58397</t>
+          <t>67e00c5fdbe88df81cfbcbe8</t>
         </is>
       </c>
       <c r="AD123" t="n">
@@ -22706,7 +22706,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58825</t>
+          <t>67e00c60dbe88df81cfbd076</t>
         </is>
       </c>
       <c r="AD124" t="n">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58827</t>
+          <t>67e00c60dbe88df81cfbd078</t>
         </is>
       </c>
       <c r="AD125" t="n">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5882b</t>
+          <t>67e00c60dbe88df81cfbd07c</t>
         </is>
       </c>
       <c r="AD126" t="n">
@@ -23258,7 +23258,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58829</t>
+          <t>67e00c60dbe88df81cfbd07a</t>
         </is>
       </c>
       <c r="AD127" t="n">
@@ -23442,7 +23442,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58812</t>
+          <t>67e00c60dbe88df81cfbd063</t>
         </is>
       </c>
       <c r="AD128" t="n">
@@ -23626,7 +23626,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58810</t>
+          <t>67e00c60dbe88df81cfbd061</t>
         </is>
       </c>
       <c r="AD129" t="n">
@@ -23810,7 +23810,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>67d49b91c523f6e114a586c9</t>
+          <t>67e00c60dbe88df81cfbcf1a</t>
         </is>
       </c>
       <c r="AD130" t="n">
@@ -23994,7 +23994,7 @@
       </c>
       <c r="AC131" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588ae</t>
+          <t>67e00c61dbe88df81cfbd0ff</t>
         </is>
       </c>
       <c r="AD131" t="n">
@@ -24178,7 +24178,7 @@
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588b6</t>
+          <t>67e00c61dbe88df81cfbd107</t>
         </is>
       </c>
       <c r="AD132" t="n">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="AC133" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588b0</t>
+          <t>67e00c61dbe88df81cfbd101</t>
         </is>
       </c>
       <c r="AD133" t="n">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="AC134" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a588b2</t>
+          <t>67e00c61dbe88df81cfbd103</t>
         </is>
       </c>
       <c r="AD134" t="n">
@@ -24730,7 +24730,7 @@
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5889d</t>
+          <t>67e00c61dbe88df81cfbd0ee</t>
         </is>
       </c>
       <c r="AD135" t="n">
@@ -24914,7 +24914,7 @@
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5893b</t>
+          <t>67e00c61dbe88df81cfbd18c</t>
         </is>
       </c>
       <c r="AD136" t="n">
@@ -25098,7 +25098,7 @@
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58939</t>
+          <t>67e00c61dbe88df81cfbd18a</t>
         </is>
       </c>
       <c r="AD137" t="n">
@@ -25282,7 +25282,7 @@
       </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589a4</t>
+          <t>67e00c61dbe88df81cfbd1f5</t>
         </is>
       </c>
       <c r="AD138" t="n">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="AC139" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589a0</t>
+          <t>67e00c61dbe88df81cfbd1f1</t>
         </is>
       </c>
       <c r="AD139" t="n">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a1a</t>
+          <t>67e00c61dbe88df81cfbd26b</t>
         </is>
       </c>
       <c r="AD141" t="n">
@@ -26152,7 +26152,7 @@
       </c>
       <c r="AC144" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58ab8</t>
+          <t>67e00c62dbe88df81cfbd309</t>
         </is>
       </c>
       <c r="AD144" t="n">
@@ -26548,7 +26548,7 @@
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58ad6</t>
+          <t>67e00c62dbe88df81cfbd327</t>
         </is>
       </c>
       <c r="AD147" t="n">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="AC148" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58ad8</t>
+          <t>67e00c62dbe88df81cfbd329</t>
         </is>
       </c>
       <c r="AD148" t="n">
@@ -27022,7 +27022,7 @@
       </c>
       <c r="AC150" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589b9</t>
+          <t>67e00c61dbe88df81cfbd20a</t>
         </is>
       </c>
       <c r="AD150" t="n">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="AC151" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a4f</t>
+          <t>67e00c61dbe88df81cfbd2a0</t>
         </is>
       </c>
       <c r="AD151" t="n">
@@ -27814,7 +27814,7 @@
       </c>
       <c r="AC156" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a72</t>
+          <t>67e00c61dbe88df81cfbd2c3</t>
         </is>
       </c>
       <c r="AD156" t="n">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="AC157" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589db</t>
+          <t>67e00c61dbe88df81cfbd22c</t>
         </is>
       </c>
       <c r="AD157" t="n">
@@ -28182,7 +28182,7 @@
       </c>
       <c r="AC158" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a5a</t>
+          <t>67e00c61dbe88df81cfbd2ab</t>
         </is>
       </c>
       <c r="AD158" t="n">
@@ -29002,7 +29002,7 @@
       </c>
       <c r="AC165" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589e8</t>
+          <t>67e00c61dbe88df81cfbd239</t>
         </is>
       </c>
       <c r="AD165" t="n">
@@ -29292,7 +29292,7 @@
       </c>
       <c r="AC167" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589fe</t>
+          <t>67e00c61dbe88df81cfbd24f</t>
         </is>
       </c>
       <c r="AD167" t="n">
@@ -29476,7 +29476,7 @@
       </c>
       <c r="AC168" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58a88</t>
+          <t>67e00c61dbe88df81cfbd2d9</t>
         </is>
       </c>
       <c r="AD168" t="n">
@@ -29660,7 +29660,7 @@
       </c>
       <c r="AC169" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58970</t>
+          <t>67e00c61dbe88df81cfbd1c1</t>
         </is>
       </c>
       <c r="AD169" t="n">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="AC172" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a09</t>
+          <t>67e00c61dbe88df81cfbd25a</t>
         </is>
       </c>
       <c r="AD172" t="n">
@@ -30240,7 +30240,7 @@
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a7d</t>
+          <t>67e00c61dbe88df81cfbd2ce</t>
         </is>
       </c>
       <c r="AD173" t="n">
@@ -30424,7 +30424,7 @@
       </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589f3</t>
+          <t>67e00c61dbe88df81cfbd244</t>
         </is>
       </c>
       <c r="AD174" t="n">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="AC175" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58aa0</t>
+          <t>67e00c62dbe88df81cfbd2f1</t>
         </is>
       </c>
       <c r="AD175" t="n">
@@ -30792,7 +30792,7 @@
       </c>
       <c r="AC176" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589c8</t>
+          <t>67e00c61dbe88df81cfbd219</t>
         </is>
       </c>
       <c r="AD176" t="n">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="AC177" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a589c8</t>
+          <t>67e00c61dbe88df81cfbd219</t>
         </is>
       </c>
       <c r="AD177" t="n">
@@ -31160,7 +31160,7 @@
       </c>
       <c r="AC178" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58956</t>
+          <t>67e00c61dbe88df81cfbd1a7</t>
         </is>
       </c>
       <c r="AD178" t="n">
@@ -31344,7 +31344,7 @@
       </c>
       <c r="AC179" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58aad</t>
+          <t>67e00c62dbe88df81cfbd2fe</t>
         </is>
       </c>
       <c r="AD179" t="n">
@@ -31528,7 +31528,7 @@
       </c>
       <c r="AC180" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58aed</t>
+          <t>67e00c62dbe88df81cfbd33e</t>
         </is>
       </c>
       <c r="AD180" t="n">
@@ -31712,7 +31712,7 @@
       </c>
       <c r="AC181" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58aeb</t>
+          <t>67e00c62dbe88df81cfbd33c</t>
         </is>
       </c>
       <c r="AD181" t="n">
@@ -31896,7 +31896,7 @@
       </c>
       <c r="AC182" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a67</t>
+          <t>67e00c61dbe88df81cfbd2b8</t>
         </is>
       </c>
       <c r="AD182" t="n">
@@ -32080,7 +32080,7 @@
       </c>
       <c r="AC183" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58b02</t>
+          <t>67e00c62dbe88df81cfbd353</t>
         </is>
       </c>
       <c r="AD183" t="n">
@@ -32262,7 +32262,7 @@
       </c>
       <c r="AC184" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58a93</t>
+          <t>67e00c62dbe88df81cfbd2e4</t>
         </is>
       </c>
       <c r="AD184" t="n">
@@ -32446,7 +32446,7 @@
       </c>
       <c r="AC185" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58963</t>
+          <t>67e00c61dbe88df81cfbd1b4</t>
         </is>
       </c>
       <c r="AD185" t="n">
@@ -32630,7 +32630,7 @@
       </c>
       <c r="AC186" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a40</t>
+          <t>67e00c61dbe88df81cfbd291</t>
         </is>
       </c>
       <c r="AD186" t="n">
@@ -32814,7 +32814,7 @@
       </c>
       <c r="AC187" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58983</t>
+          <t>67e00c61dbe88df81cfbd1d4</t>
         </is>
       </c>
       <c r="AD187" t="n">
@@ -32998,7 +32998,7 @@
       </c>
       <c r="AC188" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5897f</t>
+          <t>67e00c61dbe88df81cfbd1d0</t>
         </is>
       </c>
       <c r="AD188" t="n">
@@ -33182,7 +33182,7 @@
       </c>
       <c r="AC189" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a5897d</t>
+          <t>67e00c61dbe88df81cfbd1ce</t>
         </is>
       </c>
       <c r="AD189" t="n">
@@ -33366,7 +33366,7 @@
       </c>
       <c r="AC190" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58ac3</t>
+          <t>67e00c62dbe88df81cfbd314</t>
         </is>
       </c>
       <c r="AD190" t="n">
@@ -33550,7 +33550,7 @@
       </c>
       <c r="AC191" t="inlineStr">
         <is>
-          <t>67d49b93c523f6e114a58ac3</t>
+          <t>67e00c62dbe88df81cfbd314</t>
         </is>
       </c>
       <c r="AD191" t="n">
@@ -33734,7 +33734,7 @@
       </c>
       <c r="AC192" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a2b</t>
+          <t>67e00c61dbe88df81cfbd27c</t>
         </is>
       </c>
       <c r="AD192" t="n">
@@ -33918,7 +33918,7 @@
       </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>67d49b92c523f6e114a58a2d</t>
+          <t>67e00c61dbe88df81cfbd27e</t>
         </is>
       </c>
       <c r="AD193" t="n">
